--- a/data/MaldivesMembersMosMarked3.xlsx
+++ b/data/MaldivesMembersMosMarked3.xlsx
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11499" uniqueCount="4702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11507" uniqueCount="4709">
   <si>
     <t>uid</t>
   </si>
@@ -14223,6 +14223,27 @@
   </si>
   <si>
     <t>твердая 1</t>
+  </si>
+  <si>
+    <t>не согласен. Живет в паршивых отелях, ест суши в япоше)</t>
+  </si>
+  <si>
+    <t>твердый вип</t>
+  </si>
+  <si>
+    <t>рестораны пушкин, бизон, турандот</t>
+  </si>
+  <si>
+    <t>по отелям 5*</t>
+  </si>
+  <si>
+    <t>бизнес</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не понятно. </t>
+  </si>
+  <si>
+    <t>паршивые отели</t>
   </si>
 </sst>
 </file>
@@ -14707,9 +14728,9 @@
   <dimension ref="A1:X1037"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
+      <selection pane="bottomLeft" activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21613,6 +21634,9 @@
       <c r="E100" s="9" t="s">
         <v>4657</v>
       </c>
+      <c r="F100" s="12">
+        <v>0</v>
+      </c>
       <c r="H100" t="s">
         <v>1320</v>
       </c>
@@ -21661,6 +21685,9 @@
       <c r="E101" s="9" t="s">
         <v>4657</v>
       </c>
+      <c r="F101" s="12">
+        <v>0</v>
+      </c>
       <c r="H101" t="s">
         <v>1320</v>
       </c>
@@ -21715,6 +21742,9 @@
       <c r="E102" s="9" t="s">
         <v>4657</v>
       </c>
+      <c r="F102" s="12">
+        <v>0</v>
+      </c>
       <c r="H102" t="s">
         <v>2062</v>
       </c>
@@ -21784,6 +21814,9 @@
       <c r="E103" s="9" t="s">
         <v>4657</v>
       </c>
+      <c r="F103" s="12">
+        <v>0</v>
+      </c>
       <c r="H103" t="s">
         <v>2062</v>
       </c>
@@ -21853,6 +21886,12 @@
       <c r="E104" s="9" t="s">
         <v>4657</v>
       </c>
+      <c r="F104" s="12">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>4661</v>
+      </c>
       <c r="H104" t="s">
         <v>2063</v>
       </c>
@@ -21922,6 +21961,12 @@
       <c r="E105" s="9" t="s">
         <v>4656</v>
       </c>
+      <c r="F105" s="12">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>4702</v>
+      </c>
       <c r="H105" t="s">
         <v>2064</v>
       </c>
@@ -21991,6 +22036,9 @@
       <c r="E106" s="9" t="s">
         <v>4657</v>
       </c>
+      <c r="F106" s="12">
+        <v>0</v>
+      </c>
       <c r="H106" t="s">
         <v>1320</v>
       </c>
@@ -22039,6 +22087,12 @@
       <c r="E107" s="9" t="s">
         <v>4657</v>
       </c>
+      <c r="F107" s="12">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>4703</v>
+      </c>
       <c r="H107" t="s">
         <v>2063</v>
       </c>
@@ -22108,6 +22162,12 @@
       <c r="E108" s="9" t="s">
         <v>4657</v>
       </c>
+      <c r="F108" s="12">
+        <v>1</v>
+      </c>
+      <c r="G108" t="s">
+        <v>4704</v>
+      </c>
       <c r="H108" t="s">
         <v>2062</v>
       </c>
@@ -22177,6 +22237,9 @@
       <c r="E109" s="9" t="s">
         <v>4657</v>
       </c>
+      <c r="F109" s="12">
+        <v>0</v>
+      </c>
       <c r="H109" t="s">
         <v>1320</v>
       </c>
@@ -22231,6 +22294,12 @@
       <c r="E110" s="9" t="s">
         <v>4657</v>
       </c>
+      <c r="F110" s="12">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
+        <v>4705</v>
+      </c>
       <c r="H110" t="s">
         <v>2065</v>
       </c>
@@ -22300,6 +22369,9 @@
       <c r="E111" s="9" t="s">
         <v>4656</v>
       </c>
+      <c r="F111" s="12">
+        <v>1</v>
+      </c>
       <c r="H111" t="s">
         <v>2063</v>
       </c>
@@ -22369,6 +22441,9 @@
       <c r="E112" s="9" t="s">
         <v>4657</v>
       </c>
+      <c r="F112" s="12">
+        <v>1</v>
+      </c>
       <c r="H112" t="s">
         <v>2062</v>
       </c>
@@ -22438,6 +22513,12 @@
       <c r="E113" s="9" t="s">
         <v>4657</v>
       </c>
+      <c r="F113" s="12">
+        <v>1</v>
+      </c>
+      <c r="G113" t="s">
+        <v>4706</v>
+      </c>
       <c r="H113" t="s">
         <v>2063</v>
       </c>
@@ -22507,6 +22588,12 @@
       <c r="E114" s="9" t="s">
         <v>4657</v>
       </c>
+      <c r="F114" s="12">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>4707</v>
+      </c>
       <c r="H114" t="s">
         <v>1320</v>
       </c>
@@ -22561,6 +22648,9 @@
       <c r="E115" s="9" t="s">
         <v>4657</v>
       </c>
+      <c r="F115" s="12">
+        <v>1</v>
+      </c>
       <c r="H115" t="s">
         <v>1320</v>
       </c>
@@ -22609,6 +22699,9 @@
       <c r="E116" s="9" t="s">
         <v>4656</v>
       </c>
+      <c r="F116" s="12">
+        <v>1</v>
+      </c>
       <c r="H116" t="s">
         <v>2064</v>
       </c>
@@ -22678,6 +22771,12 @@
       <c r="E117" s="9" t="s">
         <v>4656</v>
       </c>
+      <c r="F117" s="12">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>4708</v>
+      </c>
       <c r="H117" t="s">
         <v>2064</v>
       </c>
@@ -22747,6 +22846,9 @@
       <c r="E118" s="9" t="s">
         <v>4657</v>
       </c>
+      <c r="F118" s="12">
+        <v>1</v>
+      </c>
       <c r="H118" t="s">
         <v>1320</v>
       </c>
@@ -22801,6 +22903,9 @@
       <c r="E119" s="9" t="s">
         <v>4656</v>
       </c>
+      <c r="F119" s="12">
+        <v>1</v>
+      </c>
       <c r="H119" t="s">
         <v>2063</v>
       </c>
@@ -22870,6 +22975,9 @@
       <c r="E120" s="9" t="s">
         <v>4656</v>
       </c>
+      <c r="F120" s="12">
+        <v>1</v>
+      </c>
       <c r="H120" t="s">
         <v>2064</v>
       </c>
@@ -22938,6 +23046,9 @@
       </c>
       <c r="E121" s="9" t="s">
         <v>4656</v>
+      </c>
+      <c r="F121" s="12">
+        <v>1</v>
       </c>
       <c r="H121" t="s">
         <v>2066</v>

--- a/data/MaldivesMembersMosMarked3.xlsx
+++ b/data/MaldivesMembersMosMarked3.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.galatenko\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.Outlook\CNZ6X9OE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="12375"/>
   </bookViews>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$1037</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -27,7 +22,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11507" uniqueCount="4709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11506" uniqueCount="4709">
   <si>
     <t>uid</t>
   </si>
@@ -14481,7 +14476,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14516,7 +14511,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14727,10 +14722,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1037"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F122" sqref="F122"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15086,8 +15081,9 @@
       <c r="B6" t="s">
         <v>1061</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>4661</v>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ol_moscow</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>4656</v>
